--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -109,37 +103,40 @@
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>much</t>
   </si>
   <si>
     <t>really</t>
@@ -518,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -637,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8846153846153846</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.7192982456140351</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.6933333333333334</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,37 +834,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.675</v>
       </c>
       <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L8">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
       <c r="M8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.5333333333333333</v>
+        <v>0.68</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.5185185185185185</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,10 +987,10 @@
         <v>0.6086956521739131</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.4242424242424243</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5942028985507246</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C12">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.3888888888888889</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,49 +1084,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5714285714285714</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="L13">
         <v>15</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>0.375</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>18</v>
-      </c>
-      <c r="M13">
-        <v>18</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1155,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.3050847457627119</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1187,13 +1184,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5319148936170213</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1205,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.2404371584699453</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L15">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1229,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>834</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,10 +1237,10 @@
         <v>0.5</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.2153846153846154</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1279,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1287,13 +1284,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4642857142857143</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1305,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.1263157894736842</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1329,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>83</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1337,13 +1334,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4642857142857143</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1355,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>64</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L18">
         <v>15</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.04814814814814815</v>
-      </c>
-      <c r="L18">
-        <v>26</v>
-      </c>
       <c r="M18">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1379,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>514</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1387,137 +1384,89 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3846153846153846</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.05740740740740741</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.04969879518072289</v>
+      </c>
+      <c r="L20">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K19">
-        <v>0.02710843373493976</v>
-      </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>63</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.02435064935064935</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.04377104377104377</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>0.13</v>
-      </c>
-      <c r="F21">
-        <v>0.87</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>284</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K21">
-        <v>0.01900921658986175</v>
+        <v>0.03084415584415584</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1529,33 +1478,59 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1703</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.01666666666666667</v>
+        <v>0.0195852534562212</v>
       </c>
       <c r="L22">
+        <v>34</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0.01664532650448143</v>
+      </c>
+      <c r="L23">
         <v>13</v>
       </c>
-      <c r="M22">
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <v>0.93</v>
-      </c>
-      <c r="O22">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>767</v>
+      <c r="M23">
+        <v>13</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
